--- a/yearlyAverage.xlsx
+++ b/yearlyAverage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmast\Desktop\Uni\FIT3179\data vis 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86CE419C-565D-4DD5-9379-76D891DEC149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EA6E63F-8C35-4A81-A01D-3984FCD157FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9F311D05-E1CC-4853-9459-F88D7FA99125}"/>
   </bookViews>
@@ -33,6 +33,17 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Change</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -382,483 +393,491 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C30B001-7080-47B7-8B30-930E2F472B7E}">
-  <dimension ref="A1:B59"/>
+  <dimension ref="A1:B60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1">
-        <v>1961</v>
-      </c>
-      <c r="B1">
-        <v>0.11417789690845066</v>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="B2">
-        <v>-2.6470646623239436E-2</v>
+        <v>0.11417789690845066</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="B3">
-        <v>-2.1851232387323942E-2</v>
+        <v>-2.6470646623239436E-2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="B4">
-        <v>-0.11248092722887323</v>
+        <v>-2.1851232387323942E-2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="B5">
-        <v>-0.18234640416901404</v>
+        <v>-0.11248092722887323</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="B6">
-        <v>8.1258509401408469E-2</v>
+        <v>-0.18234640416901404</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="B7">
-        <v>-0.12302259388732392</v>
+        <v>8.1258509401408469E-2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="B8">
-        <v>-0.13460054077464786</v>
+        <v>-0.12302259388732392</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="B9">
-        <v>8.740453835915489E-2</v>
+        <v>-0.13460054077464786</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="B10">
-        <v>5.9852112676408449E-2</v>
+        <v>8.740453835915489E-2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="B11">
-        <v>-0.15125099233450703</v>
+        <v>5.9852112676408449E-2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="B12">
-        <v>-3.7418043123239424E-2</v>
+        <v>-0.15125099233450703</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="B13">
-        <v>0.16006357589788725</v>
+        <v>-3.7418043123239424E-2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="B14">
-        <v>-0.10459182136619717</v>
+        <v>0.16006357589788725</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="B15">
-        <v>-3.4473954359154908E-2</v>
+        <v>-0.10459182136619717</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="B16">
-        <v>-0.17454662519366207</v>
+        <v>-3.4473954359154908E-2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="B17">
-        <v>0.1685319747007043</v>
+        <v>-0.17454662519366207</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="B18">
-        <v>4.7262853619718312E-2</v>
+        <v>0.1685319747007043</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="B19">
-        <v>0.20433966299295778</v>
+        <v>4.7262853619718312E-2</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="B20">
-        <v>0.18602893191549288</v>
+        <v>0.20433966299295778</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="B21">
-        <v>0.20204782864084497</v>
+        <v>0.18602893191549288</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="B22">
-        <v>0.13650893441901407</v>
+        <v>0.20204782864084497</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="B23">
-        <v>0.3052975820633802</v>
+        <v>0.13650893441901407</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="B24">
-        <v>6.2275101330985905E-2</v>
+        <v>0.3052975820633802</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="B25">
-        <v>6.6560558045774654E-2</v>
+        <v>6.2275101330985905E-2</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="B26">
-        <v>0.11673811973591547</v>
+        <v>6.6560558045774654E-2</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="B27">
-        <v>0.3772277624014086</v>
+        <v>0.11673811973591547</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="B28">
-        <v>0.3647274514507044</v>
+        <v>0.3772277624014086</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="B29">
-        <v>0.25262706466197205</v>
+        <v>0.3647274514507044</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="B30">
-        <v>0.5090421637007041</v>
+        <v>0.25262706466197205</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="B31">
-        <v>0.28122013979823934</v>
+        <v>0.5090421637007041</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="B32">
-        <v>0.24647441313732404</v>
+        <v>0.28122013979823934</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="B33">
-        <v>0.24000758209859166</v>
+        <v>0.24647441313732404</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="B34">
-        <v>0.52393605140845045</v>
+        <v>0.24000758209859166</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="B35">
-        <v>0.56202329126760564</v>
+        <v>0.52393605140845045</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="B36">
-        <v>0.30264443556690135</v>
+        <v>0.56202329126760564</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="B37">
-        <v>0.55877498198239428</v>
+        <v>0.30264443556690135</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="B38">
-        <v>0.89460770914436571</v>
+        <v>0.55877498198239428</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="B39">
-        <v>0.68133013942605658</v>
+        <v>0.89460770914436571</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="B40">
-        <v>0.6549768172147884</v>
+        <v>0.68133013942605658</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="B41">
-        <v>0.73394275146831001</v>
+        <v>0.6549768172147884</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="B42">
-        <v>0.86034264704577423</v>
+        <v>0.73394275146831001</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="B43">
-        <v>0.81883951258098564</v>
+        <v>0.86034264704577423</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B44">
-        <v>0.73827432742253518</v>
+        <v>0.81883951258098564</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B45">
-        <v>0.83643152829929568</v>
+        <v>0.73827432742253518</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="B46">
-        <v>0.86721550006338</v>
+        <v>0.83643152829929568</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="B47">
-        <v>0.94241123023239337</v>
+        <v>0.86721550006338</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="B48">
-        <v>0.77324633482394389</v>
+        <v>0.94241123023239337</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B49">
-        <v>0.89917208668309867</v>
+        <v>0.77324633482394389</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="B50">
-        <v>1.0072879801619732</v>
+        <v>0.89917208668309867</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B51">
-        <v>0.82887563305985934</v>
+        <v>1.0072879801619732</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B52">
-        <v>0.84085839203873203</v>
+        <v>0.82887563305985934</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B53">
-        <v>0.92983975139436614</v>
+        <v>0.84085839203873203</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B54">
-        <v>1.0635545952288727</v>
+        <v>0.92983975139436614</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B55">
-        <v>1.2535799011267612</v>
+        <v>1.0635545952288727</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B56">
-        <v>1.3390574190070423</v>
+        <v>1.2535799011267612</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B57">
-        <v>1.2151382537676059</v>
+        <v>1.3390574190070423</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B58">
-        <v>1.2286261790387321</v>
+        <v>1.2151382537676059</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59">
+        <v>2018</v>
+      </c>
+      <c r="B59">
+        <v>1.2286261790387321</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60">
         <v>2019</v>
       </c>
-      <c r="B59">
+      <c r="B60">
         <v>1.3839780329612681</v>
       </c>
     </row>
